--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3069"/>
+  <dimension ref="A1:G2999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80299,10 +80299,8 @@
           <t>$12.1B</t>
         </is>
       </c>
-      <c r="G2940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2941">
@@ -80332,10 +80330,8 @@
         </is>
       </c>
       <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2941" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2942">
@@ -80357,10 +80353,8 @@
       </c>
       <c r="E2942" t="inlineStr"/>
       <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2942" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2943">
@@ -80382,10 +80376,8 @@
       </c>
       <c r="E2943" t="inlineStr"/>
       <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2944">
@@ -80407,10 +80399,8 @@
       </c>
       <c r="E2944" t="inlineStr"/>
       <c r="F2944" t="inlineStr"/>
-      <c r="G2944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2945">
@@ -80432,10 +80422,8 @@
       </c>
       <c r="E2945" t="inlineStr"/>
       <c r="F2945" t="inlineStr"/>
-      <c r="G2945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2946">
@@ -80457,10 +80445,8 @@
       </c>
       <c r="E2946" t="inlineStr"/>
       <c r="F2946" t="inlineStr"/>
-      <c r="G2946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2947">
@@ -80490,10 +80476,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="G2947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2948">
@@ -80519,10 +80503,8 @@
         </is>
       </c>
       <c r="F2948" t="inlineStr"/>
-      <c r="G2948" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2948" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2949">
@@ -80548,10 +80530,8 @@
         </is>
       </c>
       <c r="F2949" t="inlineStr"/>
-      <c r="G2949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2950">
@@ -80573,10 +80553,8 @@
       </c>
       <c r="E2950" t="inlineStr"/>
       <c r="F2950" t="inlineStr"/>
-      <c r="G2950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2951">
@@ -80598,10 +80576,8 @@
       </c>
       <c r="E2951" t="inlineStr"/>
       <c r="F2951" t="inlineStr"/>
-      <c r="G2951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2952">
@@ -80623,10 +80599,8 @@
       </c>
       <c r="E2952" t="inlineStr"/>
       <c r="F2952" t="inlineStr"/>
-      <c r="G2952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2953">
@@ -80652,10 +80626,8 @@
         </is>
       </c>
       <c r="F2953" t="inlineStr"/>
-      <c r="G2953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2954">
@@ -80677,10 +80649,8 @@
       </c>
       <c r="E2954" t="inlineStr"/>
       <c r="F2954" t="inlineStr"/>
-      <c r="G2954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2955">
@@ -80702,10 +80672,8 @@
       </c>
       <c r="E2955" t="inlineStr"/>
       <c r="F2955" t="inlineStr"/>
-      <c r="G2955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2956">
@@ -80727,10 +80695,8 @@
       </c>
       <c r="E2956" t="inlineStr"/>
       <c r="F2956" t="inlineStr"/>
-      <c r="G2956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2957">
@@ -80752,10 +80718,8 @@
         </is>
       </c>
       <c r="F2957" t="inlineStr"/>
-      <c r="G2957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2958">
@@ -80777,10 +80741,8 @@
       </c>
       <c r="E2958" t="inlineStr"/>
       <c r="F2958" t="inlineStr"/>
-      <c r="G2958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2959">
@@ -80802,10 +80764,8 @@
       </c>
       <c r="E2959" t="inlineStr"/>
       <c r="F2959" t="inlineStr"/>
-      <c r="G2959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2960">
@@ -80823,10 +80783,8 @@
       <c r="D2960" t="inlineStr"/>
       <c r="E2960" t="inlineStr"/>
       <c r="F2960" t="inlineStr"/>
-      <c r="G2960" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2960" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2961">
@@ -80869,10 +80827,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2962" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2963">
@@ -80902,10 +80858,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2963" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2964">
@@ -80931,10 +80885,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2965">
@@ -80952,10 +80904,8 @@
       <c r="D2965" t="inlineStr"/>
       <c r="E2965" t="inlineStr"/>
       <c r="F2965" t="inlineStr"/>
-      <c r="G2965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2966">
@@ -80977,10 +80927,8 @@
       </c>
       <c r="E2966" t="inlineStr"/>
       <c r="F2966" t="inlineStr"/>
-      <c r="G2966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2966" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2967">
@@ -81002,10 +80950,8 @@
       </c>
       <c r="E2967" t="inlineStr"/>
       <c r="F2967" t="inlineStr"/>
-      <c r="G2967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2968">
@@ -81027,10 +80973,8 @@
       </c>
       <c r="E2968" t="inlineStr"/>
       <c r="F2968" t="inlineStr"/>
-      <c r="G2968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2969">
@@ -81052,10 +80996,8 @@
       </c>
       <c r="E2969" t="inlineStr"/>
       <c r="F2969" t="inlineStr"/>
-      <c r="G2969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2970">
@@ -81077,10 +81019,8 @@
       </c>
       <c r="E2970" t="inlineStr"/>
       <c r="F2970" t="inlineStr"/>
-      <c r="G2970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2971">
@@ -81102,10 +81042,8 @@
       </c>
       <c r="E2971" t="inlineStr"/>
       <c r="F2971" t="inlineStr"/>
-      <c r="G2971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2972">
@@ -81123,109 +81061,131 @@
       <c r="D2972" t="inlineStr"/>
       <c r="E2972" t="inlineStr"/>
       <c r="F2972" t="inlineStr"/>
-      <c r="G2972" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2972" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2973">
       <c r="A2973" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2973" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B2973" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
+        </is>
+      </c>
       <c r="C2973" t="inlineStr"/>
-      <c r="D2973" t="inlineStr"/>
+      <c r="D2973" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="E2973" t="inlineStr"/>
-      <c r="F2973" t="inlineStr"/>
-      <c r="G2973" t="inlineStr"/>
+      <c r="F2973" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G2973" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2974">
       <c r="A2974" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2974" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C2974" t="inlineStr"/>
-      <c r="D2974" t="inlineStr"/>
+      <c r="D2974" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E2974" t="inlineStr"/>
-      <c r="F2974" t="inlineStr"/>
+      <c r="F2974" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G2974" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2975">
       <c r="A2975" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2975" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/09</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2975" t="inlineStr"/>
       <c r="D2975" t="inlineStr">
         <is>
-          <t>$6.66T</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2975" t="inlineStr"/>
       <c r="F2975" t="inlineStr"/>
       <c r="G2975" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2976">
       <c r="A2976" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2976" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C2976" t="inlineStr"/>
-      <c r="D2976" t="inlineStr"/>
+      <c r="D2976" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="E2976" t="inlineStr"/>
       <c r="F2976" t="inlineStr"/>
       <c r="G2976" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2977">
       <c r="A2977" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2977" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C2977" t="inlineStr"/>
-      <c r="D2977" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
+      <c r="D2977" t="inlineStr"/>
       <c r="E2977" t="inlineStr"/>
       <c r="F2977" t="inlineStr"/>
       <c r="G2977" t="inlineStr">
@@ -81237,20 +81197,16 @@
     <row r="2978">
       <c r="A2978" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2978" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2978" t="inlineStr"/>
-      <c r="D2978" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
+      <c r="D2978" t="inlineStr"/>
       <c r="E2978" t="inlineStr"/>
       <c r="F2978" t="inlineStr"/>
       <c r="G2978" t="inlineStr">
@@ -81262,71 +81218,75 @@
     <row r="2979">
       <c r="A2979" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2979" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2979" t="inlineStr"/>
-      <c r="D2979" t="inlineStr">
-        <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E2979" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F2979" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+      <c r="D2979" t="inlineStr"/>
+      <c r="E2979" t="inlineStr"/>
+      <c r="F2979" t="inlineStr"/>
       <c r="G2979" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2980">
       <c r="A2980" t="inlineStr">
         <is>
-          <t>Saturday July 12 2025</t>
-        </is>
-      </c>
-      <c r="B2980" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2980" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2980" t="inlineStr"/>
       <c r="D2980" t="inlineStr"/>
       <c r="E2980" t="inlineStr"/>
       <c r="F2980" t="inlineStr"/>
-      <c r="G2980" t="inlineStr"/>
+      <c r="G2980" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2981">
       <c r="A2981" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B2981" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2981" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJUL/17</t>
+        </is>
+      </c>
       <c r="C2981" t="inlineStr"/>
       <c r="D2981" t="inlineStr"/>
       <c r="E2981" t="inlineStr"/>
       <c r="F2981" t="inlineStr"/>
-      <c r="G2981" t="inlineStr"/>
+      <c r="G2981" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2982">
       <c r="A2982" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2982" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2982" t="inlineStr"/>
@@ -81342,121 +81302,109 @@
     <row r="2983">
       <c r="A2983" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2983" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B2983" t="inlineStr"/>
       <c r="C2983" t="inlineStr"/>
       <c r="D2983" t="inlineStr"/>
       <c r="E2983" t="inlineStr"/>
       <c r="F2983" t="inlineStr"/>
-      <c r="G2983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2983" t="inlineStr"/>
     </row>
     <row r="2984">
       <c r="A2984" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B2984" t="inlineStr"/>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B2984" t="inlineStr">
+        <is>
+          <t>Net Long-term TIC FlowsMAY</t>
+        </is>
+      </c>
       <c r="C2984" t="inlineStr"/>
-      <c r="D2984" t="inlineStr"/>
+      <c r="D2984" t="inlineStr">
+        <is>
+          <t>$-7.8B</t>
+        </is>
+      </c>
       <c r="E2984" t="inlineStr"/>
       <c r="F2984" t="inlineStr"/>
-      <c r="G2984" t="inlineStr"/>
+      <c r="G2984" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2985">
       <c r="A2985" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2985" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C2985" t="inlineStr"/>
       <c r="D2985" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E2985" t="inlineStr"/>
-      <c r="F2985" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2985" t="inlineStr"/>
       <c r="G2985" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2986">
       <c r="A2986" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2986" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C2986" t="inlineStr"/>
       <c r="D2986" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E2986" t="inlineStr"/>
-      <c r="F2986" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="F2986" t="inlineStr"/>
       <c r="G2986" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2987">
       <c r="A2987" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2987" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C2987" t="inlineStr"/>
-      <c r="D2987" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D2987" t="inlineStr"/>
       <c r="E2987" t="inlineStr"/>
-      <c r="F2987" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2987" t="inlineStr"/>
       <c r="G2987" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -81468,19 +81416,19 @@
       </c>
       <c r="B2988" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C2988" t="inlineStr"/>
       <c r="D2988" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E2988" t="inlineStr"/>
       <c r="F2988" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>1.37M</t>
         </is>
       </c>
       <c r="G2988" t="inlineStr">
@@ -81497,24 +81445,24 @@
       </c>
       <c r="B2989" t="inlineStr">
         <is>
-          <t>CPIJUN</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C2989" t="inlineStr"/>
       <c r="D2989" t="inlineStr">
         <is>
-          <t>321.465</t>
+          <t>1.256M</t>
         </is>
       </c>
       <c r="E2989" t="inlineStr"/>
       <c r="F2989" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1.29M</t>
         </is>
       </c>
       <c r="G2989" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -81526,21 +81474,17 @@
       </c>
       <c r="B2990" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C2990" t="inlineStr"/>
       <c r="D2990" t="inlineStr">
         <is>
-          <t>320.580</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E2990" t="inlineStr"/>
-      <c r="F2990" t="inlineStr">
-        <is>
-          <t>321.2</t>
-        </is>
-      </c>
+      <c r="F2990" t="inlineStr"/>
       <c r="G2990" t="inlineStr">
         <is>
           <t>2</t>
@@ -81555,13 +81499,13 @@
       </c>
       <c r="B2991" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C2991" t="inlineStr"/>
       <c r="D2991" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E2991" t="inlineStr"/>
@@ -81575,41 +81519,45 @@
     <row r="2992">
       <c r="A2992" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2992" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C2992" t="inlineStr"/>
       <c r="D2992" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="E2992" t="inlineStr"/>
       <c r="F2992" t="inlineStr"/>
       <c r="G2992" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2993">
       <c r="A2993" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2993" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2993" t="inlineStr"/>
-      <c r="D2993" t="inlineStr"/>
+      <c r="D2993" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="E2993" t="inlineStr"/>
       <c r="F2993" t="inlineStr"/>
       <c r="G2993" t="inlineStr">
@@ -81621,67 +81569,87 @@
     <row r="2994">
       <c r="A2994" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B2994" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2994" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJUL</t>
+        </is>
+      </c>
       <c r="C2994" t="inlineStr"/>
-      <c r="D2994" t="inlineStr"/>
+      <c r="D2994" t="inlineStr">
+        <is>
+          <t>58.1</t>
+        </is>
+      </c>
       <c r="E2994" t="inlineStr"/>
       <c r="F2994" t="inlineStr"/>
-      <c r="G2994" t="inlineStr"/>
+      <c r="G2994" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2995">
       <c r="A2995" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2995" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C2995" t="inlineStr"/>
-      <c r="D2995" t="inlineStr"/>
+      <c r="D2995" t="inlineStr">
+        <is>
+          <t>64.8</t>
+        </is>
+      </c>
       <c r="E2995" t="inlineStr"/>
       <c r="F2995" t="inlineStr"/>
       <c r="G2995" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2996">
       <c r="A2996" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2996" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2996" t="inlineStr"/>
-      <c r="D2996" t="inlineStr"/>
+      <c r="D2996" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="E2996" t="inlineStr"/>
       <c r="F2996" t="inlineStr"/>
       <c r="G2996" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2997">
       <c r="A2997" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2997" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C2997" t="inlineStr"/>
@@ -81697,12 +81665,12 @@
     <row r="2998">
       <c r="A2998" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2998" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C2998" t="inlineStr"/>
@@ -81718,1705 +81686,15 @@
     <row r="2999">
       <c r="A2999" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2999" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B2999" t="inlineStr"/>
       <c r="C2999" t="inlineStr"/>
       <c r="D2999" t="inlineStr"/>
       <c r="E2999" t="inlineStr"/>
       <c r="F2999" t="inlineStr"/>
-      <c r="G2999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3000">
-      <c r="A3000" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B3000" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUL/11</t>
-        </is>
-      </c>
-      <c r="C3000" t="inlineStr"/>
-      <c r="D3000" t="inlineStr"/>
-      <c r="E3000" t="inlineStr"/>
-      <c r="F3000" t="inlineStr"/>
-      <c r="G3000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3001">
-      <c r="A3001" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3001" t="inlineStr">
-        <is>
-          <t>PPI MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3001" t="inlineStr"/>
-      <c r="D3001" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3001" t="inlineStr"/>
-      <c r="F3001" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3002">
-      <c r="A3002" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3002" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3002" t="inlineStr"/>
-      <c r="D3002" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3002" t="inlineStr"/>
-      <c r="F3002" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3003">
-      <c r="A3003" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3003" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3003" t="inlineStr"/>
-      <c r="D3003" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E3003" t="inlineStr"/>
-      <c r="F3003" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G3003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3004">
-      <c r="A3004" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3004" t="inlineStr">
-        <is>
-          <t>PPIJUN</t>
-        </is>
-      </c>
-      <c r="C3004" t="inlineStr"/>
-      <c r="D3004" t="inlineStr">
-        <is>
-          <t>148.072</t>
-        </is>
-      </c>
-      <c r="E3004" t="inlineStr"/>
-      <c r="F3004" t="inlineStr">
-        <is>
-          <t>148.9</t>
-        </is>
-      </c>
-      <c r="G3004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3005">
-      <c r="A3005" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3005" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3005" t="inlineStr"/>
-      <c r="D3005" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3005" t="inlineStr"/>
-      <c r="F3005" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3006">
-      <c r="A3006" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3006" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3006" t="inlineStr"/>
-      <c r="D3006" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E3006" t="inlineStr"/>
-      <c r="F3006" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G3006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3007">
-      <c r="A3007" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3007" t="inlineStr">
-        <is>
-          <t>PPI YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3007" t="inlineStr"/>
-      <c r="D3007" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E3007" t="inlineStr"/>
-      <c r="F3007" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G3007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3008">
-      <c r="A3008" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3008" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C3008" t="inlineStr"/>
-      <c r="D3008" t="inlineStr"/>
-      <c r="E3008" t="inlineStr"/>
-      <c r="F3008" t="inlineStr"/>
-      <c r="G3008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3009">
-      <c r="A3009" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3009" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3009" t="inlineStr"/>
-      <c r="D3009" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E3009" t="inlineStr"/>
-      <c r="F3009" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3010">
-      <c r="A3010" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3010" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJUN</t>
-        </is>
-      </c>
-      <c r="C3010" t="inlineStr"/>
-      <c r="D3010" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="E3010" t="inlineStr"/>
-      <c r="F3010" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G3010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3011">
-      <c r="A3011" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3011" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3011" t="inlineStr"/>
-      <c r="D3011" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E3011" t="inlineStr"/>
-      <c r="F3011" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="G3011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3012">
-      <c r="A3012" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3012" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3012" t="inlineStr"/>
-      <c r="D3012" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3012" t="inlineStr"/>
-      <c r="F3012" t="inlineStr"/>
-      <c r="G3012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3013">
-      <c r="A3013" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3013" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3013" t="inlineStr"/>
-      <c r="D3013" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E3013" t="inlineStr"/>
-      <c r="F3013" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G3013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3014">
-      <c r="A3014" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3014" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3014" t="inlineStr"/>
-      <c r="D3014" t="inlineStr"/>
-      <c r="E3014" t="inlineStr"/>
-      <c r="F3014" t="inlineStr"/>
-      <c r="G3014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3015">
-      <c r="A3015" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3015" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3015" t="inlineStr"/>
-      <c r="D3015" t="inlineStr"/>
-      <c r="E3015" t="inlineStr"/>
-      <c r="F3015" t="inlineStr"/>
-      <c r="G3015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3016">
-      <c r="A3016" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3016" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3016" t="inlineStr"/>
-      <c r="D3016" t="inlineStr"/>
-      <c r="E3016" t="inlineStr"/>
-      <c r="F3016" t="inlineStr"/>
-      <c r="G3016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3017">
-      <c r="A3017" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3017" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3017" t="inlineStr"/>
-      <c r="D3017" t="inlineStr"/>
-      <c r="E3017" t="inlineStr"/>
-      <c r="F3017" t="inlineStr"/>
-      <c r="G3017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3018">
-      <c r="A3018" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3018" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3018" t="inlineStr"/>
-      <c r="D3018" t="inlineStr"/>
-      <c r="E3018" t="inlineStr"/>
-      <c r="F3018" t="inlineStr"/>
-      <c r="G3018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3019">
-      <c r="A3019" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3019" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3019" t="inlineStr"/>
-      <c r="D3019" t="inlineStr"/>
-      <c r="E3019" t="inlineStr"/>
-      <c r="F3019" t="inlineStr"/>
-      <c r="G3019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3020">
-      <c r="A3020" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3020" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3020" t="inlineStr"/>
-      <c r="D3020" t="inlineStr"/>
-      <c r="E3020" t="inlineStr"/>
-      <c r="F3020" t="inlineStr"/>
-      <c r="G3020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3021">
-      <c r="A3021" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3021" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3021" t="inlineStr"/>
-      <c r="D3021" t="inlineStr"/>
-      <c r="E3021" t="inlineStr"/>
-      <c r="F3021" t="inlineStr"/>
-      <c r="G3021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3022">
-      <c r="A3022" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3022" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3022" t="inlineStr"/>
-      <c r="D3022" t="inlineStr"/>
-      <c r="E3022" t="inlineStr"/>
-      <c r="F3022" t="inlineStr"/>
-      <c r="G3022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3023">
-      <c r="A3023" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3023" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3023" t="inlineStr"/>
-      <c r="D3023" t="inlineStr"/>
-      <c r="E3023" t="inlineStr"/>
-      <c r="F3023" t="inlineStr"/>
-      <c r="G3023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3024">
-      <c r="A3024" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B3024" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C3024" t="inlineStr"/>
-      <c r="D3024" t="inlineStr"/>
-      <c r="E3024" t="inlineStr"/>
-      <c r="F3024" t="inlineStr"/>
-      <c r="G3024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3025">
-      <c r="A3025" t="inlineStr">
-        <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B3025" t="inlineStr"/>
-      <c r="C3025" t="inlineStr"/>
-      <c r="D3025" t="inlineStr"/>
-      <c r="E3025" t="inlineStr"/>
-      <c r="F3025" t="inlineStr"/>
-      <c r="G3025" t="inlineStr"/>
-    </row>
-    <row r="3026">
-      <c r="A3026" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B3026" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C3026" t="inlineStr"/>
-      <c r="D3026" t="inlineStr"/>
-      <c r="E3026" t="inlineStr"/>
-      <c r="F3026" t="inlineStr"/>
-      <c r="G3026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3027">
-      <c r="A3027" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3027" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3027" t="inlineStr"/>
-      <c r="D3027" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3027" t="inlineStr"/>
-      <c r="F3027" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3027" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3028">
-      <c r="A3028" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3028" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3028" t="inlineStr"/>
-      <c r="D3028" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3028" t="inlineStr"/>
-      <c r="F3028" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G3028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3029">
-      <c r="A3029" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3029" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3029" t="inlineStr"/>
-      <c r="D3029" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3029" t="inlineStr"/>
-      <c r="F3029" t="inlineStr"/>
-      <c r="G3029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3030">
-      <c r="A3030" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3030" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C3030" t="inlineStr"/>
-      <c r="D3030" t="inlineStr"/>
-      <c r="E3030" t="inlineStr"/>
-      <c r="F3030" t="inlineStr"/>
-      <c r="G3030" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3031">
-      <c r="A3031" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3031" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3031" t="inlineStr"/>
-      <c r="D3031" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="E3031" t="inlineStr"/>
-      <c r="F3031" t="inlineStr"/>
-      <c r="G3031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3032">
-      <c r="A3032" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3032" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3032" t="inlineStr"/>
-      <c r="D3032" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E3032" t="inlineStr"/>
-      <c r="F3032" t="inlineStr"/>
-      <c r="G3032" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3033">
-      <c r="A3033" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3033" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3033" t="inlineStr"/>
-      <c r="D3033" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E3033" t="inlineStr"/>
-      <c r="F3033" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3034">
-      <c r="A3034" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3034" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C3034" t="inlineStr"/>
-      <c r="D3034" t="inlineStr"/>
-      <c r="E3034" t="inlineStr"/>
-      <c r="F3034" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G3034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3035">
-      <c r="A3035" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3035" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3035" t="inlineStr"/>
-      <c r="D3035" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E3035" t="inlineStr"/>
-      <c r="F3035" t="inlineStr"/>
-      <c r="G3035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3036">
-      <c r="A3036" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3036" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3036" t="inlineStr"/>
-      <c r="D3036" t="inlineStr"/>
-      <c r="E3036" t="inlineStr"/>
-      <c r="F3036" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3037">
-      <c r="A3037" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3037" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C3037" t="inlineStr"/>
-      <c r="D3037" t="inlineStr"/>
-      <c r="E3037" t="inlineStr"/>
-      <c r="F3037" t="inlineStr"/>
-      <c r="G3037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3038">
-      <c r="A3038" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3038" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C3038" t="inlineStr"/>
-      <c r="D3038" t="inlineStr"/>
-      <c r="E3038" t="inlineStr"/>
-      <c r="F3038" t="inlineStr"/>
-      <c r="G3038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3039">
-      <c r="A3039" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3039" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3039" t="inlineStr"/>
-      <c r="D3039" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E3039" t="inlineStr"/>
-      <c r="F3039" t="inlineStr"/>
-      <c r="G3039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3040">
-      <c r="A3040" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3040" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C3040" t="inlineStr"/>
-      <c r="D3040" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E3040" t="inlineStr"/>
-      <c r="F3040" t="inlineStr"/>
-      <c r="G3040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3041">
-      <c r="A3041" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3041" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C3041" t="inlineStr"/>
-      <c r="D3041" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E3041" t="inlineStr"/>
-      <c r="F3041" t="inlineStr"/>
-      <c r="G3041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3042">
-      <c r="A3042" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3042" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C3042" t="inlineStr"/>
-      <c r="D3042" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E3042" t="inlineStr"/>
-      <c r="F3042" t="inlineStr"/>
-      <c r="G3042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3043">
-      <c r="A3043" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3043" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3043" t="inlineStr"/>
-      <c r="D3043" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E3043" t="inlineStr"/>
-      <c r="F3043" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3044">
-      <c r="A3044" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3044" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3044" t="inlineStr"/>
-      <c r="D3044" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E3044" t="inlineStr"/>
-      <c r="F3044" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G3044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3045">
-      <c r="A3045" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3045" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3045" t="inlineStr"/>
-      <c r="D3045" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3045" t="inlineStr"/>
-      <c r="F3045" t="inlineStr"/>
-      <c r="G3045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3046">
-      <c r="A3046" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3046" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3046" t="inlineStr"/>
-      <c r="D3046" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E3046" t="inlineStr"/>
-      <c r="F3046" t="inlineStr"/>
-      <c r="G3046" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3047">
-      <c r="A3047" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3047" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3047" t="inlineStr"/>
-      <c r="D3047" t="inlineStr"/>
-      <c r="E3047" t="inlineStr"/>
-      <c r="F3047" t="inlineStr"/>
-      <c r="G3047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3048">
-      <c r="A3048" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3048" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3048" t="inlineStr"/>
-      <c r="D3048" t="inlineStr"/>
-      <c r="E3048" t="inlineStr"/>
-      <c r="F3048" t="inlineStr"/>
-      <c r="G3048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3049">
-      <c r="A3049" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3049" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3049" t="inlineStr"/>
-      <c r="D3049" t="inlineStr"/>
-      <c r="E3049" t="inlineStr"/>
-      <c r="F3049" t="inlineStr"/>
-      <c r="G3049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3050">
-      <c r="A3050" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3050" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3050" t="inlineStr"/>
-      <c r="D3050" t="inlineStr"/>
-      <c r="E3050" t="inlineStr"/>
-      <c r="F3050" t="inlineStr"/>
-      <c r="G3050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3051">
-      <c r="A3051" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3051" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3051" t="inlineStr"/>
-      <c r="D3051" t="inlineStr"/>
-      <c r="E3051" t="inlineStr"/>
-      <c r="F3051" t="inlineStr"/>
-      <c r="G3051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3052">
-      <c r="A3052" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3052" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3052" t="inlineStr"/>
-      <c r="D3052" t="inlineStr"/>
-      <c r="E3052" t="inlineStr"/>
-      <c r="F3052" t="inlineStr"/>
-      <c r="G3052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3053">
-      <c r="A3053" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B3053" t="inlineStr"/>
-      <c r="C3053" t="inlineStr"/>
-      <c r="D3053" t="inlineStr"/>
-      <c r="E3053" t="inlineStr"/>
-      <c r="F3053" t="inlineStr"/>
-      <c r="G3053" t="inlineStr"/>
-    </row>
-    <row r="3054">
-      <c r="A3054" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3054" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3054" t="inlineStr"/>
-      <c r="D3054" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E3054" t="inlineStr"/>
-      <c r="F3054" t="inlineStr"/>
-      <c r="G3054" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3055">
-      <c r="A3055" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3055" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C3055" t="inlineStr"/>
-      <c r="D3055" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E3055" t="inlineStr"/>
-      <c r="F3055" t="inlineStr"/>
-      <c r="G3055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3056">
-      <c r="A3056" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3056" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3056" t="inlineStr"/>
-      <c r="D3056" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E3056" t="inlineStr"/>
-      <c r="F3056" t="inlineStr"/>
-      <c r="G3056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3057">
-      <c r="A3057" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B3057" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C3057" t="inlineStr"/>
-      <c r="D3057" t="inlineStr"/>
-      <c r="E3057" t="inlineStr"/>
-      <c r="F3057" t="inlineStr"/>
-      <c r="G3057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3058">
-      <c r="A3058" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3058" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3058" t="inlineStr"/>
-      <c r="D3058" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E3058" t="inlineStr"/>
-      <c r="F3058" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G3058" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3059">
-      <c r="A3059" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3059" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C3059" t="inlineStr"/>
-      <c r="D3059" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E3059" t="inlineStr"/>
-      <c r="F3059" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G3059" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3060">
-      <c r="A3060" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3060" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3060" t="inlineStr"/>
-      <c r="D3060" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E3060" t="inlineStr"/>
-      <c r="F3060" t="inlineStr"/>
-      <c r="G3060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3061">
-      <c r="A3061" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3061" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3061" t="inlineStr"/>
-      <c r="D3061" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E3061" t="inlineStr"/>
-      <c r="F3061" t="inlineStr"/>
-      <c r="G3061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3062">
-      <c r="A3062" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3062" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3062" t="inlineStr"/>
-      <c r="D3062" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E3062" t="inlineStr"/>
-      <c r="F3062" t="inlineStr"/>
-      <c r="G3062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3063">
-      <c r="A3063" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3063" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3063" t="inlineStr"/>
-      <c r="D3063" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E3063" t="inlineStr"/>
-      <c r="F3063" t="inlineStr"/>
-      <c r="G3063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3064">
-      <c r="A3064" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3064" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3064" t="inlineStr"/>
-      <c r="D3064" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E3064" t="inlineStr"/>
-      <c r="F3064" t="inlineStr"/>
-      <c r="G3064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3065">
-      <c r="A3065" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3065" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3065" t="inlineStr"/>
-      <c r="D3065" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E3065" t="inlineStr"/>
-      <c r="F3065" t="inlineStr"/>
-      <c r="G3065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3066">
-      <c r="A3066" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3066" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3066" t="inlineStr"/>
-      <c r="D3066" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E3066" t="inlineStr"/>
-      <c r="F3066" t="inlineStr"/>
-      <c r="G3066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3067">
-      <c r="A3067" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3067" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3067" t="inlineStr"/>
-      <c r="D3067" t="inlineStr"/>
-      <c r="E3067" t="inlineStr"/>
-      <c r="F3067" t="inlineStr"/>
-      <c r="G3067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3068">
-      <c r="A3068" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3068" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3068" t="inlineStr"/>
-      <c r="D3068" t="inlineStr"/>
-      <c r="E3068" t="inlineStr"/>
-      <c r="F3068" t="inlineStr"/>
-      <c r="G3068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3069">
-      <c r="A3069" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B3069" t="inlineStr"/>
-      <c r="C3069" t="inlineStr"/>
-      <c r="D3069" t="inlineStr"/>
-      <c r="E3069" t="inlineStr"/>
-      <c r="F3069" t="inlineStr"/>
-      <c r="G3069" t="inlineStr"/>
+      <c r="G2999" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3069"/>
+  <dimension ref="A1:G2999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80299,10 +80299,8 @@
           <t>$12.1B</t>
         </is>
       </c>
-      <c r="G2940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2941">
@@ -80332,10 +80330,8 @@
         </is>
       </c>
       <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2941" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2942">
@@ -80361,10 +80357,8 @@
       </c>
       <c r="E2942" t="inlineStr"/>
       <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2942" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2943">
@@ -80390,10 +80384,8 @@
       </c>
       <c r="E2943" t="inlineStr"/>
       <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2944">
@@ -80419,10 +80411,8 @@
       </c>
       <c r="E2944" t="inlineStr"/>
       <c r="F2944" t="inlineStr"/>
-      <c r="G2944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2945">
@@ -80448,10 +80438,8 @@
       </c>
       <c r="E2945" t="inlineStr"/>
       <c r="F2945" t="inlineStr"/>
-      <c r="G2945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2946">
@@ -80477,10 +80465,8 @@
       </c>
       <c r="E2946" t="inlineStr"/>
       <c r="F2946" t="inlineStr"/>
-      <c r="G2946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2947">
@@ -80514,10 +80500,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="G2947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2948">
@@ -80543,10 +80527,8 @@
         </is>
       </c>
       <c r="F2948" t="inlineStr"/>
-      <c r="G2948" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2948" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2949">
@@ -80572,10 +80554,8 @@
         </is>
       </c>
       <c r="F2949" t="inlineStr"/>
-      <c r="G2949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2950">
@@ -80597,10 +80577,8 @@
       </c>
       <c r="E2950" t="inlineStr"/>
       <c r="F2950" t="inlineStr"/>
-      <c r="G2950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2951">
@@ -80622,10 +80600,8 @@
       </c>
       <c r="E2951" t="inlineStr"/>
       <c r="F2951" t="inlineStr"/>
-      <c r="G2951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2952">
@@ -80647,10 +80623,8 @@
       </c>
       <c r="E2952" t="inlineStr"/>
       <c r="F2952" t="inlineStr"/>
-      <c r="G2952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2953">
@@ -80676,10 +80650,8 @@
         </is>
       </c>
       <c r="F2953" t="inlineStr"/>
-      <c r="G2953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2954">
@@ -80701,10 +80673,8 @@
       </c>
       <c r="E2954" t="inlineStr"/>
       <c r="F2954" t="inlineStr"/>
-      <c r="G2954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2955">
@@ -80726,10 +80696,8 @@
       </c>
       <c r="E2955" t="inlineStr"/>
       <c r="F2955" t="inlineStr"/>
-      <c r="G2955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2956">
@@ -80751,10 +80719,8 @@
       </c>
       <c r="E2956" t="inlineStr"/>
       <c r="F2956" t="inlineStr"/>
-      <c r="G2956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2957">
@@ -80776,10 +80742,8 @@
         </is>
       </c>
       <c r="F2957" t="inlineStr"/>
-      <c r="G2957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2958">
@@ -80801,10 +80765,8 @@
       </c>
       <c r="E2958" t="inlineStr"/>
       <c r="F2958" t="inlineStr"/>
-      <c r="G2958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2959">
@@ -80826,10 +80788,8 @@
       </c>
       <c r="E2959" t="inlineStr"/>
       <c r="F2959" t="inlineStr"/>
-      <c r="G2959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2960">
@@ -80847,10 +80807,8 @@
       <c r="D2960" t="inlineStr"/>
       <c r="E2960" t="inlineStr"/>
       <c r="F2960" t="inlineStr"/>
-      <c r="G2960" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2960" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2961">
@@ -80893,10 +80851,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2962" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2963">
@@ -80926,10 +80882,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2963" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2964">
@@ -80955,10 +80909,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2965">
@@ -80976,10 +80928,8 @@
       <c r="D2965" t="inlineStr"/>
       <c r="E2965" t="inlineStr"/>
       <c r="F2965" t="inlineStr"/>
-      <c r="G2965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2966">
@@ -81005,10 +80955,8 @@
         </is>
       </c>
       <c r="F2966" t="inlineStr"/>
-      <c r="G2966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2966" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2967">
@@ -81030,10 +80978,8 @@
       </c>
       <c r="E2967" t="inlineStr"/>
       <c r="F2967" t="inlineStr"/>
-      <c r="G2967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2968">
@@ -81055,10 +81001,8 @@
       </c>
       <c r="E2968" t="inlineStr"/>
       <c r="F2968" t="inlineStr"/>
-      <c r="G2968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2969">
@@ -81080,10 +81024,8 @@
       </c>
       <c r="E2969" t="inlineStr"/>
       <c r="F2969" t="inlineStr"/>
-      <c r="G2969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2970">
@@ -81105,10 +81047,8 @@
       </c>
       <c r="E2970" t="inlineStr"/>
       <c r="F2970" t="inlineStr"/>
-      <c r="G2970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2971">
@@ -81130,10 +81070,8 @@
       </c>
       <c r="E2971" t="inlineStr"/>
       <c r="F2971" t="inlineStr"/>
-      <c r="G2971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2972">
@@ -81151,111 +81089,153 @@
       <c r="D2972" t="inlineStr"/>
       <c r="E2972" t="inlineStr"/>
       <c r="F2972" t="inlineStr"/>
-      <c r="G2972" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2972" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2973">
       <c r="A2973" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2973" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B2973" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
+        </is>
+      </c>
       <c r="C2973" t="inlineStr"/>
-      <c r="D2973" t="inlineStr"/>
+      <c r="D2973" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="E2973" t="inlineStr"/>
-      <c r="F2973" t="inlineStr"/>
-      <c r="G2973" t="inlineStr"/>
+      <c r="F2973" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G2973" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2974">
       <c r="A2974" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2974" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C2974" t="inlineStr"/>
-      <c r="D2974" t="inlineStr"/>
+      <c r="D2974" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E2974" t="inlineStr"/>
-      <c r="F2974" t="inlineStr"/>
+      <c r="F2974" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G2974" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2975">
       <c r="A2975" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2975" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/09</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2975" t="inlineStr"/>
       <c r="D2975" t="inlineStr">
         <is>
-          <t>$6.66T</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2975" t="inlineStr"/>
-      <c r="F2975" t="inlineStr"/>
+      <c r="F2975" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2975" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2976">
       <c r="A2976" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2976" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C2976" t="inlineStr"/>
-      <c r="D2976" t="inlineStr"/>
+      <c r="D2976" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="E2976" t="inlineStr"/>
-      <c r="F2976" t="inlineStr"/>
+      <c r="F2976" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="G2976" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2977">
       <c r="A2977" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2977" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C2977" t="inlineStr"/>
       <c r="D2977" t="inlineStr">
         <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="E2977" t="inlineStr"/>
-      <c r="F2977" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E2977" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2977" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2977" t="inlineStr">
         <is>
           <t>3</t>
@@ -81265,20 +81245,16 @@
     <row r="2978">
       <c r="A2978" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2978" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2978" t="inlineStr"/>
-      <c r="D2978" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
+      <c r="D2978" t="inlineStr"/>
       <c r="E2978" t="inlineStr"/>
       <c r="F2978" t="inlineStr"/>
       <c r="G2978" t="inlineStr">
@@ -81290,79 +81266,79 @@
     <row r="2979">
       <c r="A2979" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2979" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2979" t="inlineStr"/>
-      <c r="D2979" t="inlineStr">
-        <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E2979" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F2979" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+      <c r="D2979" t="inlineStr"/>
+      <c r="E2979" t="inlineStr"/>
+      <c r="F2979" t="inlineStr"/>
       <c r="G2979" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2980">
       <c r="A2980" t="inlineStr">
         <is>
-          <t>Saturday July 12 2025</t>
-        </is>
-      </c>
-      <c r="B2980" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2980" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2980" t="inlineStr"/>
       <c r="D2980" t="inlineStr"/>
       <c r="E2980" t="inlineStr"/>
       <c r="F2980" t="inlineStr"/>
-      <c r="G2980" t="inlineStr"/>
+      <c r="G2980" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2981">
       <c r="A2981" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B2981" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2981" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJUL/17</t>
+        </is>
+      </c>
       <c r="C2981" t="inlineStr"/>
       <c r="D2981" t="inlineStr"/>
       <c r="E2981" t="inlineStr"/>
       <c r="F2981" t="inlineStr"/>
-      <c r="G2981" t="inlineStr"/>
+      <c r="G2981" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2982">
       <c r="A2982" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2982" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2982" t="inlineStr"/>
-      <c r="D2982" t="inlineStr">
-        <is>
-          <t>4.255%</t>
-        </is>
-      </c>
+      <c r="D2982" t="inlineStr"/>
       <c r="E2982" t="inlineStr"/>
       <c r="F2982" t="inlineStr"/>
       <c r="G2982" t="inlineStr">
@@ -81374,125 +81350,109 @@
     <row r="2983">
       <c r="A2983" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2983" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B2983" t="inlineStr"/>
       <c r="C2983" t="inlineStr"/>
-      <c r="D2983" t="inlineStr">
-        <is>
-          <t>4.145%</t>
-        </is>
-      </c>
+      <c r="D2983" t="inlineStr"/>
       <c r="E2983" t="inlineStr"/>
       <c r="F2983" t="inlineStr"/>
-      <c r="G2983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2983" t="inlineStr"/>
     </row>
     <row r="2984">
       <c r="A2984" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B2984" t="inlineStr"/>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B2984" t="inlineStr">
+        <is>
+          <t>Net Long-term TIC FlowsMAY</t>
+        </is>
+      </c>
       <c r="C2984" t="inlineStr"/>
-      <c r="D2984" t="inlineStr"/>
+      <c r="D2984" t="inlineStr">
+        <is>
+          <t>$-7.8B</t>
+        </is>
+      </c>
       <c r="E2984" t="inlineStr"/>
       <c r="F2984" t="inlineStr"/>
-      <c r="G2984" t="inlineStr"/>
+      <c r="G2984" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2985">
       <c r="A2985" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2985" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C2985" t="inlineStr"/>
       <c r="D2985" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E2985" t="inlineStr"/>
-      <c r="F2985" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2985" t="inlineStr"/>
       <c r="G2985" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2986">
       <c r="A2986" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2986" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C2986" t="inlineStr"/>
       <c r="D2986" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E2986" t="inlineStr"/>
-      <c r="F2986" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="F2986" t="inlineStr"/>
       <c r="G2986" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2987">
       <c r="A2987" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2987" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C2987" t="inlineStr"/>
-      <c r="D2987" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D2987" t="inlineStr"/>
       <c r="E2987" t="inlineStr"/>
-      <c r="F2987" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2987" t="inlineStr"/>
       <c r="G2987" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -81504,19 +81464,19 @@
       </c>
       <c r="B2988" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C2988" t="inlineStr"/>
       <c r="D2988" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E2988" t="inlineStr"/>
       <c r="F2988" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>1.37M</t>
         </is>
       </c>
       <c r="G2988" t="inlineStr">
@@ -81533,24 +81493,24 @@
       </c>
       <c r="B2989" t="inlineStr">
         <is>
-          <t>CPIJUN</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C2989" t="inlineStr"/>
       <c r="D2989" t="inlineStr">
         <is>
-          <t>321.465</t>
+          <t>1.256M</t>
         </is>
       </c>
       <c r="E2989" t="inlineStr"/>
       <c r="F2989" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1.29M</t>
         </is>
       </c>
       <c r="G2989" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -81562,19 +81522,19 @@
       </c>
       <c r="B2990" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C2990" t="inlineStr"/>
       <c r="D2990" t="inlineStr">
         <is>
-          <t>320.580</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E2990" t="inlineStr"/>
       <c r="F2990" t="inlineStr">
         <is>
-          <t>321.2</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G2990" t="inlineStr">
@@ -81591,19 +81551,19 @@
       </c>
       <c r="B2991" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C2991" t="inlineStr"/>
       <c r="D2991" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E2991" t="inlineStr"/>
       <c r="F2991" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G2991" t="inlineStr">
@@ -81615,43 +81575,55 @@
     <row r="2992">
       <c r="A2992" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2992" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C2992" t="inlineStr"/>
       <c r="D2992" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="E2992" t="inlineStr"/>
-      <c r="F2992" t="inlineStr"/>
+      <c r="F2992" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G2992" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2993">
       <c r="A2993" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2993" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2993" t="inlineStr"/>
-      <c r="D2993" t="inlineStr"/>
+      <c r="D2993" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="E2993" t="inlineStr"/>
-      <c r="F2993" t="inlineStr"/>
+      <c r="F2993" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="G2993" t="inlineStr">
         <is>
           <t>3</t>
@@ -81661,83 +81633,103 @@
     <row r="2994">
       <c r="A2994" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B2994" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2994" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJUL</t>
+        </is>
+      </c>
       <c r="C2994" t="inlineStr"/>
-      <c r="D2994" t="inlineStr"/>
+      <c r="D2994" t="inlineStr">
+        <is>
+          <t>58.1</t>
+        </is>
+      </c>
       <c r="E2994" t="inlineStr"/>
-      <c r="F2994" t="inlineStr"/>
-      <c r="G2994" t="inlineStr"/>
+      <c r="F2994" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G2994" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2995">
       <c r="A2995" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2995" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C2995" t="inlineStr"/>
       <c r="D2995" t="inlineStr">
         <is>
-          <t>7.1M</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="E2995" t="inlineStr"/>
-      <c r="F2995" t="inlineStr"/>
+      <c r="F2995" t="inlineStr">
+        <is>
+          <t>64.6</t>
+        </is>
+      </c>
       <c r="G2995" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2996">
       <c r="A2996" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2996" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2996" t="inlineStr"/>
       <c r="D2996" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E2996" t="inlineStr"/>
-      <c r="F2996" t="inlineStr"/>
+      <c r="F2996" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="G2996" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2997">
       <c r="A2997" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2997" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C2997" t="inlineStr"/>
-      <c r="D2997" t="inlineStr">
-        <is>
-          <t>9.4%</t>
-        </is>
-      </c>
+      <c r="D2997" t="inlineStr"/>
       <c r="E2997" t="inlineStr"/>
       <c r="F2997" t="inlineStr"/>
       <c r="G2997" t="inlineStr">
@@ -81749,20 +81741,16 @@
     <row r="2998">
       <c r="A2998" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2998" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C2998" t="inlineStr"/>
-      <c r="D2998" t="inlineStr">
-        <is>
-          <t>281.6</t>
-        </is>
-      </c>
+      <c r="D2998" t="inlineStr"/>
       <c r="E2998" t="inlineStr"/>
       <c r="F2998" t="inlineStr"/>
       <c r="G2998" t="inlineStr">
@@ -81774,1789 +81762,15 @@
     <row r="2999">
       <c r="A2999" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2999" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B2999" t="inlineStr"/>
       <c r="C2999" t="inlineStr"/>
-      <c r="D2999" t="inlineStr">
-        <is>
-          <t>829.3</t>
-        </is>
-      </c>
+      <c r="D2999" t="inlineStr"/>
       <c r="E2999" t="inlineStr"/>
       <c r="F2999" t="inlineStr"/>
-      <c r="G2999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3000">
-      <c r="A3000" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B3000" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUL/11</t>
-        </is>
-      </c>
-      <c r="C3000" t="inlineStr"/>
-      <c r="D3000" t="inlineStr">
-        <is>
-          <t>180.9</t>
-        </is>
-      </c>
-      <c r="E3000" t="inlineStr"/>
-      <c r="F3000" t="inlineStr"/>
-      <c r="G3000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3001">
-      <c r="A3001" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3001" t="inlineStr">
-        <is>
-          <t>PPI MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3001" t="inlineStr"/>
-      <c r="D3001" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3001" t="inlineStr"/>
-      <c r="F3001" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3002">
-      <c r="A3002" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3002" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3002" t="inlineStr"/>
-      <c r="D3002" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3002" t="inlineStr"/>
-      <c r="F3002" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3003">
-      <c r="A3003" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3003" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3003" t="inlineStr"/>
-      <c r="D3003" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E3003" t="inlineStr"/>
-      <c r="F3003" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G3003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3004">
-      <c r="A3004" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3004" t="inlineStr">
-        <is>
-          <t>PPIJUN</t>
-        </is>
-      </c>
-      <c r="C3004" t="inlineStr"/>
-      <c r="D3004" t="inlineStr">
-        <is>
-          <t>148.072</t>
-        </is>
-      </c>
-      <c r="E3004" t="inlineStr"/>
-      <c r="F3004" t="inlineStr">
-        <is>
-          <t>148.9</t>
-        </is>
-      </c>
-      <c r="G3004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3005">
-      <c r="A3005" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3005" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3005" t="inlineStr"/>
-      <c r="D3005" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3005" t="inlineStr"/>
-      <c r="F3005" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3006">
-      <c r="A3006" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3006" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3006" t="inlineStr"/>
-      <c r="D3006" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E3006" t="inlineStr"/>
-      <c r="F3006" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G3006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3007">
-      <c r="A3007" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3007" t="inlineStr">
-        <is>
-          <t>PPI YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3007" t="inlineStr"/>
-      <c r="D3007" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E3007" t="inlineStr"/>
-      <c r="F3007" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G3007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3008">
-      <c r="A3008" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3008" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C3008" t="inlineStr"/>
-      <c r="D3008" t="inlineStr"/>
-      <c r="E3008" t="inlineStr"/>
-      <c r="F3008" t="inlineStr"/>
-      <c r="G3008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3009">
-      <c r="A3009" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3009" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3009" t="inlineStr"/>
-      <c r="D3009" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E3009" t="inlineStr"/>
-      <c r="F3009" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3010">
-      <c r="A3010" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3010" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJUN</t>
-        </is>
-      </c>
-      <c r="C3010" t="inlineStr"/>
-      <c r="D3010" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="E3010" t="inlineStr"/>
-      <c r="F3010" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G3010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3011">
-      <c r="A3011" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3011" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3011" t="inlineStr"/>
-      <c r="D3011" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E3011" t="inlineStr"/>
-      <c r="F3011" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="G3011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3012">
-      <c r="A3012" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3012" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3012" t="inlineStr"/>
-      <c r="D3012" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3012" t="inlineStr"/>
-      <c r="F3012" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3013">
-      <c r="A3013" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3013" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3013" t="inlineStr"/>
-      <c r="D3013" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E3013" t="inlineStr"/>
-      <c r="F3013" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G3013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3014">
-      <c r="A3014" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3014" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3014" t="inlineStr"/>
-      <c r="D3014" t="inlineStr"/>
-      <c r="E3014" t="inlineStr"/>
-      <c r="F3014" t="inlineStr"/>
-      <c r="G3014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3015">
-      <c r="A3015" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3015" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3015" t="inlineStr"/>
-      <c r="D3015" t="inlineStr"/>
-      <c r="E3015" t="inlineStr"/>
-      <c r="F3015" t="inlineStr"/>
-      <c r="G3015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3016">
-      <c r="A3016" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3016" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3016" t="inlineStr"/>
-      <c r="D3016" t="inlineStr"/>
-      <c r="E3016" t="inlineStr"/>
-      <c r="F3016" t="inlineStr"/>
-      <c r="G3016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3017">
-      <c r="A3017" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3017" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3017" t="inlineStr"/>
-      <c r="D3017" t="inlineStr"/>
-      <c r="E3017" t="inlineStr"/>
-      <c r="F3017" t="inlineStr"/>
-      <c r="G3017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3018">
-      <c r="A3018" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3018" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3018" t="inlineStr"/>
-      <c r="D3018" t="inlineStr"/>
-      <c r="E3018" t="inlineStr"/>
-      <c r="F3018" t="inlineStr"/>
-      <c r="G3018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3019">
-      <c r="A3019" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3019" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3019" t="inlineStr"/>
-      <c r="D3019" t="inlineStr"/>
-      <c r="E3019" t="inlineStr"/>
-      <c r="F3019" t="inlineStr"/>
-      <c r="G3019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3020">
-      <c r="A3020" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3020" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3020" t="inlineStr"/>
-      <c r="D3020" t="inlineStr"/>
-      <c r="E3020" t="inlineStr"/>
-      <c r="F3020" t="inlineStr"/>
-      <c r="G3020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3021">
-      <c r="A3021" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3021" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3021" t="inlineStr"/>
-      <c r="D3021" t="inlineStr"/>
-      <c r="E3021" t="inlineStr"/>
-      <c r="F3021" t="inlineStr"/>
-      <c r="G3021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3022">
-      <c r="A3022" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3022" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3022" t="inlineStr"/>
-      <c r="D3022" t="inlineStr"/>
-      <c r="E3022" t="inlineStr"/>
-      <c r="F3022" t="inlineStr"/>
-      <c r="G3022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3023">
-      <c r="A3023" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3023" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3023" t="inlineStr"/>
-      <c r="D3023" t="inlineStr"/>
-      <c r="E3023" t="inlineStr"/>
-      <c r="F3023" t="inlineStr"/>
-      <c r="G3023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3024">
-      <c r="A3024" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B3024" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C3024" t="inlineStr"/>
-      <c r="D3024" t="inlineStr"/>
-      <c r="E3024" t="inlineStr"/>
-      <c r="F3024" t="inlineStr"/>
-      <c r="G3024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3025">
-      <c r="A3025" t="inlineStr">
-        <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B3025" t="inlineStr"/>
-      <c r="C3025" t="inlineStr"/>
-      <c r="D3025" t="inlineStr"/>
-      <c r="E3025" t="inlineStr"/>
-      <c r="F3025" t="inlineStr"/>
-      <c r="G3025" t="inlineStr"/>
-    </row>
-    <row r="3026">
-      <c r="A3026" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B3026" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C3026" t="inlineStr"/>
-      <c r="D3026" t="inlineStr"/>
-      <c r="E3026" t="inlineStr"/>
-      <c r="F3026" t="inlineStr"/>
-      <c r="G3026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3027">
-      <c r="A3027" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3027" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3027" t="inlineStr"/>
-      <c r="D3027" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3027" t="inlineStr"/>
-      <c r="F3027" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3027" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3028">
-      <c r="A3028" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3028" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3028" t="inlineStr"/>
-      <c r="D3028" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3028" t="inlineStr"/>
-      <c r="F3028" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3029">
-      <c r="A3029" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3029" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3029" t="inlineStr"/>
-      <c r="D3029" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3029" t="inlineStr"/>
-      <c r="F3029" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3030">
-      <c r="A3030" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3030" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C3030" t="inlineStr"/>
-      <c r="D3030" t="inlineStr"/>
-      <c r="E3030" t="inlineStr"/>
-      <c r="F3030" t="inlineStr"/>
-      <c r="G3030" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3031">
-      <c r="A3031" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3031" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3031" t="inlineStr"/>
-      <c r="D3031" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="E3031" t="inlineStr"/>
-      <c r="F3031" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G3031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3032">
-      <c r="A3032" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3032" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3032" t="inlineStr"/>
-      <c r="D3032" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E3032" t="inlineStr"/>
-      <c r="F3032" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3032" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3033">
-      <c r="A3033" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3033" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3033" t="inlineStr"/>
-      <c r="D3033" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E3033" t="inlineStr"/>
-      <c r="F3033" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3034">
-      <c r="A3034" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3034" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C3034" t="inlineStr"/>
-      <c r="D3034" t="inlineStr"/>
-      <c r="E3034" t="inlineStr"/>
-      <c r="F3034" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G3034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3035">
-      <c r="A3035" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3035" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3035" t="inlineStr"/>
-      <c r="D3035" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E3035" t="inlineStr"/>
-      <c r="F3035" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G3035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3036">
-      <c r="A3036" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3036" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3036" t="inlineStr"/>
-      <c r="D3036" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E3036" t="inlineStr"/>
-      <c r="F3036" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3037">
-      <c r="A3037" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3037" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C3037" t="inlineStr"/>
-      <c r="D3037" t="inlineStr"/>
-      <c r="E3037" t="inlineStr"/>
-      <c r="F3037" t="inlineStr"/>
-      <c r="G3037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3038">
-      <c r="A3038" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3038" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C3038" t="inlineStr"/>
-      <c r="D3038" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E3038" t="inlineStr"/>
-      <c r="F3038" t="inlineStr"/>
-      <c r="G3038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3039">
-      <c r="A3039" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3039" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3039" t="inlineStr"/>
-      <c r="D3039" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E3039" t="inlineStr"/>
-      <c r="F3039" t="inlineStr"/>
-      <c r="G3039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3040">
-      <c r="A3040" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3040" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C3040" t="inlineStr"/>
-      <c r="D3040" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E3040" t="inlineStr"/>
-      <c r="F3040" t="inlineStr"/>
-      <c r="G3040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3041">
-      <c r="A3041" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3041" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C3041" t="inlineStr"/>
-      <c r="D3041" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E3041" t="inlineStr"/>
-      <c r="F3041" t="inlineStr"/>
-      <c r="G3041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3042">
-      <c r="A3042" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3042" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C3042" t="inlineStr"/>
-      <c r="D3042" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E3042" t="inlineStr"/>
-      <c r="F3042" t="inlineStr"/>
-      <c r="G3042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3043">
-      <c r="A3043" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3043" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3043" t="inlineStr"/>
-      <c r="D3043" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E3043" t="inlineStr"/>
-      <c r="F3043" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3044">
-      <c r="A3044" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3044" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3044" t="inlineStr"/>
-      <c r="D3044" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E3044" t="inlineStr"/>
-      <c r="F3044" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G3044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3045">
-      <c r="A3045" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3045" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3045" t="inlineStr"/>
-      <c r="D3045" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3045" t="inlineStr"/>
-      <c r="F3045" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3046">
-      <c r="A3046" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3046" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3046" t="inlineStr"/>
-      <c r="D3046" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E3046" t="inlineStr"/>
-      <c r="F3046" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G3046" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3047">
-      <c r="A3047" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3047" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3047" t="inlineStr"/>
-      <c r="D3047" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E3047" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F3047" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3048">
-      <c r="A3048" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3048" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3048" t="inlineStr"/>
-      <c r="D3048" t="inlineStr"/>
-      <c r="E3048" t="inlineStr"/>
-      <c r="F3048" t="inlineStr"/>
-      <c r="G3048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3049">
-      <c r="A3049" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3049" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3049" t="inlineStr"/>
-      <c r="D3049" t="inlineStr"/>
-      <c r="E3049" t="inlineStr"/>
-      <c r="F3049" t="inlineStr"/>
-      <c r="G3049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3050">
-      <c r="A3050" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3050" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3050" t="inlineStr"/>
-      <c r="D3050" t="inlineStr"/>
-      <c r="E3050" t="inlineStr"/>
-      <c r="F3050" t="inlineStr"/>
-      <c r="G3050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3051">
-      <c r="A3051" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3051" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3051" t="inlineStr"/>
-      <c r="D3051" t="inlineStr"/>
-      <c r="E3051" t="inlineStr"/>
-      <c r="F3051" t="inlineStr"/>
-      <c r="G3051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3052">
-      <c r="A3052" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3052" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3052" t="inlineStr"/>
-      <c r="D3052" t="inlineStr"/>
-      <c r="E3052" t="inlineStr"/>
-      <c r="F3052" t="inlineStr"/>
-      <c r="G3052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3053">
-      <c r="A3053" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B3053" t="inlineStr"/>
-      <c r="C3053" t="inlineStr"/>
-      <c r="D3053" t="inlineStr"/>
-      <c r="E3053" t="inlineStr"/>
-      <c r="F3053" t="inlineStr"/>
-      <c r="G3053" t="inlineStr"/>
-    </row>
-    <row r="3054">
-      <c r="A3054" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3054" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3054" t="inlineStr"/>
-      <c r="D3054" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E3054" t="inlineStr"/>
-      <c r="F3054" t="inlineStr"/>
-      <c r="G3054" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3055">
-      <c r="A3055" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3055" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C3055" t="inlineStr"/>
-      <c r="D3055" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E3055" t="inlineStr"/>
-      <c r="F3055" t="inlineStr"/>
-      <c r="G3055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3056">
-      <c r="A3056" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3056" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3056" t="inlineStr"/>
-      <c r="D3056" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E3056" t="inlineStr"/>
-      <c r="F3056" t="inlineStr"/>
-      <c r="G3056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3057">
-      <c r="A3057" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B3057" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C3057" t="inlineStr"/>
-      <c r="D3057" t="inlineStr"/>
-      <c r="E3057" t="inlineStr"/>
-      <c r="F3057" t="inlineStr"/>
-      <c r="G3057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3058">
-      <c r="A3058" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3058" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3058" t="inlineStr"/>
-      <c r="D3058" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E3058" t="inlineStr"/>
-      <c r="F3058" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G3058" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3059">
-      <c r="A3059" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3059" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C3059" t="inlineStr"/>
-      <c r="D3059" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E3059" t="inlineStr"/>
-      <c r="F3059" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G3059" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3060">
-      <c r="A3060" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3060" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3060" t="inlineStr"/>
-      <c r="D3060" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E3060" t="inlineStr"/>
-      <c r="F3060" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G3060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3061">
-      <c r="A3061" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3061" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3061" t="inlineStr"/>
-      <c r="D3061" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E3061" t="inlineStr"/>
-      <c r="F3061" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G3061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3062">
-      <c r="A3062" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3062" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3062" t="inlineStr"/>
-      <c r="D3062" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E3062" t="inlineStr"/>
-      <c r="F3062" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G3062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3063">
-      <c r="A3063" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3063" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3063" t="inlineStr"/>
-      <c r="D3063" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E3063" t="inlineStr"/>
-      <c r="F3063" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G3063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3064">
-      <c r="A3064" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3064" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3064" t="inlineStr"/>
-      <c r="D3064" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E3064" t="inlineStr"/>
-      <c r="F3064" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G3064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3065">
-      <c r="A3065" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3065" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3065" t="inlineStr"/>
-      <c r="D3065" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E3065" t="inlineStr"/>
-      <c r="F3065" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G3065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3066">
-      <c r="A3066" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3066" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3066" t="inlineStr"/>
-      <c r="D3066" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E3066" t="inlineStr"/>
-      <c r="F3066" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G3066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3067">
-      <c r="A3067" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3067" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3067" t="inlineStr"/>
-      <c r="D3067" t="inlineStr"/>
-      <c r="E3067" t="inlineStr"/>
-      <c r="F3067" t="inlineStr"/>
-      <c r="G3067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3068">
-      <c r="A3068" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3068" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3068" t="inlineStr"/>
-      <c r="D3068" t="inlineStr"/>
-      <c r="E3068" t="inlineStr"/>
-      <c r="F3068" t="inlineStr"/>
-      <c r="G3068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3069">
-      <c r="A3069" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B3069" t="inlineStr"/>
-      <c r="C3069" t="inlineStr"/>
-      <c r="D3069" t="inlineStr"/>
-      <c r="E3069" t="inlineStr"/>
-      <c r="F3069" t="inlineStr"/>
-      <c r="G3069" t="inlineStr"/>
+      <c r="G2999" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3069"/>
+  <dimension ref="A1:G2999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80299,10 +80299,8 @@
           <t>$12.1B</t>
         </is>
       </c>
-      <c r="G2940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2941">
@@ -80332,10 +80330,8 @@
         </is>
       </c>
       <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2941" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2942">
@@ -80361,10 +80357,8 @@
       </c>
       <c r="E2942" t="inlineStr"/>
       <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2942" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2943">
@@ -80390,10 +80384,8 @@
       </c>
       <c r="E2943" t="inlineStr"/>
       <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2944">
@@ -80419,10 +80411,8 @@
       </c>
       <c r="E2944" t="inlineStr"/>
       <c r="F2944" t="inlineStr"/>
-      <c r="G2944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2945">
@@ -80448,10 +80438,8 @@
       </c>
       <c r="E2945" t="inlineStr"/>
       <c r="F2945" t="inlineStr"/>
-      <c r="G2945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2946">
@@ -80477,10 +80465,8 @@
       </c>
       <c r="E2946" t="inlineStr"/>
       <c r="F2946" t="inlineStr"/>
-      <c r="G2946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2947">
@@ -80514,10 +80500,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="G2947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2948">
@@ -80547,10 +80531,8 @@
         </is>
       </c>
       <c r="F2948" t="inlineStr"/>
-      <c r="G2948" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2948" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2949">
@@ -80580,10 +80562,8 @@
         </is>
       </c>
       <c r="F2949" t="inlineStr"/>
-      <c r="G2949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2950">
@@ -80609,10 +80589,8 @@
       </c>
       <c r="E2950" t="inlineStr"/>
       <c r="F2950" t="inlineStr"/>
-      <c r="G2950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2951">
@@ -80638,10 +80616,8 @@
       </c>
       <c r="E2951" t="inlineStr"/>
       <c r="F2951" t="inlineStr"/>
-      <c r="G2951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2952">
@@ -80667,10 +80643,8 @@
       </c>
       <c r="E2952" t="inlineStr"/>
       <c r="F2952" t="inlineStr"/>
-      <c r="G2952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2953">
@@ -80700,10 +80674,8 @@
         </is>
       </c>
       <c r="F2953" t="inlineStr"/>
-      <c r="G2953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2954">
@@ -80729,10 +80701,8 @@
       </c>
       <c r="E2954" t="inlineStr"/>
       <c r="F2954" t="inlineStr"/>
-      <c r="G2954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2955">
@@ -80758,10 +80728,8 @@
       </c>
       <c r="E2955" t="inlineStr"/>
       <c r="F2955" t="inlineStr"/>
-      <c r="G2955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2956">
@@ -80787,10 +80755,8 @@
       </c>
       <c r="E2956" t="inlineStr"/>
       <c r="F2956" t="inlineStr"/>
-      <c r="G2956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2957">
@@ -80812,10 +80778,8 @@
         </is>
       </c>
       <c r="F2957" t="inlineStr"/>
-      <c r="G2957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2958">
@@ -80841,10 +80805,8 @@
       </c>
       <c r="E2958" t="inlineStr"/>
       <c r="F2958" t="inlineStr"/>
-      <c r="G2958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2959">
@@ -80870,10 +80832,8 @@
       </c>
       <c r="E2959" t="inlineStr"/>
       <c r="F2959" t="inlineStr"/>
-      <c r="G2959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2960">
@@ -80891,10 +80851,8 @@
       <c r="D2960" t="inlineStr"/>
       <c r="E2960" t="inlineStr"/>
       <c r="F2960" t="inlineStr"/>
-      <c r="G2960" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2960" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2961">
@@ -80937,10 +80895,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2962" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2963">
@@ -80970,10 +80926,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2963" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2964">
@@ -80999,10 +80953,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2965">
@@ -81020,10 +80972,8 @@
       <c r="D2965" t="inlineStr"/>
       <c r="E2965" t="inlineStr"/>
       <c r="F2965" t="inlineStr"/>
-      <c r="G2965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2966">
@@ -81049,10 +80999,8 @@
         </is>
       </c>
       <c r="F2966" t="inlineStr"/>
-      <c r="G2966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2966" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2967">
@@ -81074,10 +81022,8 @@
       </c>
       <c r="E2967" t="inlineStr"/>
       <c r="F2967" t="inlineStr"/>
-      <c r="G2967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2968">
@@ -81099,10 +81045,8 @@
       </c>
       <c r="E2968" t="inlineStr"/>
       <c r="F2968" t="inlineStr"/>
-      <c r="G2968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2969">
@@ -81124,10 +81068,8 @@
       </c>
       <c r="E2969" t="inlineStr"/>
       <c r="F2969" t="inlineStr"/>
-      <c r="G2969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2970">
@@ -81149,10 +81091,8 @@
       </c>
       <c r="E2970" t="inlineStr"/>
       <c r="F2970" t="inlineStr"/>
-      <c r="G2970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2971">
@@ -81174,10 +81114,8 @@
       </c>
       <c r="E2971" t="inlineStr"/>
       <c r="F2971" t="inlineStr"/>
-      <c r="G2971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2972">
@@ -81195,111 +81133,153 @@
       <c r="D2972" t="inlineStr"/>
       <c r="E2972" t="inlineStr"/>
       <c r="F2972" t="inlineStr"/>
-      <c r="G2972" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2972" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2973">
       <c r="A2973" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2973" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B2973" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
+        </is>
+      </c>
       <c r="C2973" t="inlineStr"/>
-      <c r="D2973" t="inlineStr"/>
+      <c r="D2973" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="E2973" t="inlineStr"/>
-      <c r="F2973" t="inlineStr"/>
-      <c r="G2973" t="inlineStr"/>
+      <c r="F2973" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G2973" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2974">
       <c r="A2974" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2974" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C2974" t="inlineStr"/>
-      <c r="D2974" t="inlineStr"/>
+      <c r="D2974" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E2974" t="inlineStr"/>
-      <c r="F2974" t="inlineStr"/>
+      <c r="F2974" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G2974" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2975">
       <c r="A2975" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2975" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/09</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2975" t="inlineStr"/>
       <c r="D2975" t="inlineStr">
         <is>
-          <t>$6.66T</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2975" t="inlineStr"/>
-      <c r="F2975" t="inlineStr"/>
+      <c r="F2975" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2975" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2976">
       <c r="A2976" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2976" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C2976" t="inlineStr"/>
-      <c r="D2976" t="inlineStr"/>
+      <c r="D2976" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="E2976" t="inlineStr"/>
-      <c r="F2976" t="inlineStr"/>
+      <c r="F2976" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="G2976" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2977">
       <c r="A2977" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2977" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C2977" t="inlineStr"/>
       <c r="D2977" t="inlineStr">
         <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="E2977" t="inlineStr"/>
-      <c r="F2977" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E2977" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2977" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2977" t="inlineStr">
         <is>
           <t>3</t>
@@ -81309,20 +81289,16 @@
     <row r="2978">
       <c r="A2978" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2978" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2978" t="inlineStr"/>
-      <c r="D2978" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
+      <c r="D2978" t="inlineStr"/>
       <c r="E2978" t="inlineStr"/>
       <c r="F2978" t="inlineStr"/>
       <c r="G2978" t="inlineStr">
@@ -81334,79 +81310,79 @@
     <row r="2979">
       <c r="A2979" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2979" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2979" t="inlineStr"/>
-      <c r="D2979" t="inlineStr">
-        <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E2979" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F2979" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+      <c r="D2979" t="inlineStr"/>
+      <c r="E2979" t="inlineStr"/>
+      <c r="F2979" t="inlineStr"/>
       <c r="G2979" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2980">
       <c r="A2980" t="inlineStr">
         <is>
-          <t>Saturday July 12 2025</t>
-        </is>
-      </c>
-      <c r="B2980" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2980" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2980" t="inlineStr"/>
       <c r="D2980" t="inlineStr"/>
       <c r="E2980" t="inlineStr"/>
       <c r="F2980" t="inlineStr"/>
-      <c r="G2980" t="inlineStr"/>
+      <c r="G2980" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2981">
       <c r="A2981" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B2981" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2981" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJUL/17</t>
+        </is>
+      </c>
       <c r="C2981" t="inlineStr"/>
       <c r="D2981" t="inlineStr"/>
       <c r="E2981" t="inlineStr"/>
       <c r="F2981" t="inlineStr"/>
-      <c r="G2981" t="inlineStr"/>
+      <c r="G2981" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2982">
       <c r="A2982" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2982" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C2982" t="inlineStr"/>
-      <c r="D2982" t="inlineStr">
-        <is>
-          <t>4.255%</t>
-        </is>
-      </c>
+      <c r="D2982" t="inlineStr"/>
       <c r="E2982" t="inlineStr"/>
       <c r="F2982" t="inlineStr"/>
       <c r="G2982" t="inlineStr">
@@ -81418,125 +81394,109 @@
     <row r="2983">
       <c r="A2983" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2983" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B2983" t="inlineStr"/>
       <c r="C2983" t="inlineStr"/>
-      <c r="D2983" t="inlineStr">
-        <is>
-          <t>4.145%</t>
-        </is>
-      </c>
+      <c r="D2983" t="inlineStr"/>
       <c r="E2983" t="inlineStr"/>
       <c r="F2983" t="inlineStr"/>
-      <c r="G2983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2983" t="inlineStr"/>
     </row>
     <row r="2984">
       <c r="A2984" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B2984" t="inlineStr"/>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B2984" t="inlineStr">
+        <is>
+          <t>Net Long-term TIC FlowsMAY</t>
+        </is>
+      </c>
       <c r="C2984" t="inlineStr"/>
-      <c r="D2984" t="inlineStr"/>
+      <c r="D2984" t="inlineStr">
+        <is>
+          <t>$-7.8B</t>
+        </is>
+      </c>
       <c r="E2984" t="inlineStr"/>
       <c r="F2984" t="inlineStr"/>
-      <c r="G2984" t="inlineStr"/>
+      <c r="G2984" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2985">
       <c r="A2985" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2985" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C2985" t="inlineStr"/>
       <c r="D2985" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E2985" t="inlineStr"/>
-      <c r="F2985" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2985" t="inlineStr"/>
       <c r="G2985" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2986">
       <c r="A2986" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2986" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C2986" t="inlineStr"/>
       <c r="D2986" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E2986" t="inlineStr"/>
-      <c r="F2986" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="F2986" t="inlineStr"/>
       <c r="G2986" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2987">
       <c r="A2987" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2987" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C2987" t="inlineStr"/>
-      <c r="D2987" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D2987" t="inlineStr"/>
       <c r="E2987" t="inlineStr"/>
-      <c r="F2987" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2987" t="inlineStr"/>
       <c r="G2987" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -81548,19 +81508,19 @@
       </c>
       <c r="B2988" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C2988" t="inlineStr"/>
       <c r="D2988" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E2988" t="inlineStr"/>
       <c r="F2988" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>1.37M</t>
         </is>
       </c>
       <c r="G2988" t="inlineStr">
@@ -81577,24 +81537,24 @@
       </c>
       <c r="B2989" t="inlineStr">
         <is>
-          <t>CPIJUN</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C2989" t="inlineStr"/>
       <c r="D2989" t="inlineStr">
         <is>
-          <t>321.465</t>
+          <t>1.256M</t>
         </is>
       </c>
       <c r="E2989" t="inlineStr"/>
       <c r="F2989" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1.29M</t>
         </is>
       </c>
       <c r="G2989" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -81606,19 +81566,19 @@
       </c>
       <c r="B2990" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C2990" t="inlineStr"/>
       <c r="D2990" t="inlineStr">
         <is>
-          <t>320.580</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E2990" t="inlineStr"/>
       <c r="F2990" t="inlineStr">
         <is>
-          <t>321.2</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G2990" t="inlineStr">
@@ -81635,19 +81595,19 @@
       </c>
       <c r="B2991" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C2991" t="inlineStr"/>
       <c r="D2991" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E2991" t="inlineStr"/>
       <c r="F2991" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G2991" t="inlineStr">
@@ -81659,43 +81619,55 @@
     <row r="2992">
       <c r="A2992" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2992" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C2992" t="inlineStr"/>
       <c r="D2992" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="E2992" t="inlineStr"/>
-      <c r="F2992" t="inlineStr"/>
+      <c r="F2992" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G2992" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2993">
       <c r="A2993" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2993" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2993" t="inlineStr"/>
-      <c r="D2993" t="inlineStr"/>
+      <c r="D2993" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="E2993" t="inlineStr"/>
-      <c r="F2993" t="inlineStr"/>
+      <c r="F2993" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="G2993" t="inlineStr">
         <is>
           <t>3</t>
@@ -81705,83 +81677,103 @@
     <row r="2994">
       <c r="A2994" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B2994" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2994" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelJUL</t>
+        </is>
+      </c>
       <c r="C2994" t="inlineStr"/>
-      <c r="D2994" t="inlineStr"/>
+      <c r="D2994" t="inlineStr">
+        <is>
+          <t>58.1</t>
+        </is>
+      </c>
       <c r="E2994" t="inlineStr"/>
-      <c r="F2994" t="inlineStr"/>
-      <c r="G2994" t="inlineStr"/>
+      <c r="F2994" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G2994" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2995">
       <c r="A2995" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2995" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C2995" t="inlineStr"/>
       <c r="D2995" t="inlineStr">
         <is>
-          <t>7.1M</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="E2995" t="inlineStr"/>
-      <c r="F2995" t="inlineStr"/>
+      <c r="F2995" t="inlineStr">
+        <is>
+          <t>64.6</t>
+        </is>
+      </c>
       <c r="G2995" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2996">
       <c r="A2996" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2996" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2996" t="inlineStr"/>
       <c r="D2996" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E2996" t="inlineStr"/>
-      <c r="F2996" t="inlineStr"/>
+      <c r="F2996" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="G2996" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2997">
       <c r="A2997" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2997" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C2997" t="inlineStr"/>
-      <c r="D2997" t="inlineStr">
-        <is>
-          <t>9.4%</t>
-        </is>
-      </c>
+      <c r="D2997" t="inlineStr"/>
       <c r="E2997" t="inlineStr"/>
       <c r="F2997" t="inlineStr"/>
       <c r="G2997" t="inlineStr">
@@ -81793,20 +81785,16 @@
     <row r="2998">
       <c r="A2998" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2998" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C2998" t="inlineStr"/>
-      <c r="D2998" t="inlineStr">
-        <is>
-          <t>281.6</t>
-        </is>
-      </c>
+      <c r="D2998" t="inlineStr"/>
       <c r="E2998" t="inlineStr"/>
       <c r="F2998" t="inlineStr"/>
       <c r="G2998" t="inlineStr">
@@ -81818,1825 +81806,15 @@
     <row r="2999">
       <c r="A2999" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2999" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B2999" t="inlineStr"/>
       <c r="C2999" t="inlineStr"/>
-      <c r="D2999" t="inlineStr">
-        <is>
-          <t>829.3</t>
-        </is>
-      </c>
+      <c r="D2999" t="inlineStr"/>
       <c r="E2999" t="inlineStr"/>
       <c r="F2999" t="inlineStr"/>
-      <c r="G2999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3000">
-      <c r="A3000" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B3000" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUL/11</t>
-        </is>
-      </c>
-      <c r="C3000" t="inlineStr"/>
-      <c r="D3000" t="inlineStr">
-        <is>
-          <t>180.9</t>
-        </is>
-      </c>
-      <c r="E3000" t="inlineStr"/>
-      <c r="F3000" t="inlineStr"/>
-      <c r="G3000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3001">
-      <c r="A3001" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3001" t="inlineStr">
-        <is>
-          <t>PPI MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3001" t="inlineStr"/>
-      <c r="D3001" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3001" t="inlineStr"/>
-      <c r="F3001" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3002">
-      <c r="A3002" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3002" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3002" t="inlineStr"/>
-      <c r="D3002" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3002" t="inlineStr"/>
-      <c r="F3002" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3003">
-      <c r="A3003" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3003" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3003" t="inlineStr"/>
-      <c r="D3003" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E3003" t="inlineStr"/>
-      <c r="F3003" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G3003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3004">
-      <c r="A3004" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3004" t="inlineStr">
-        <is>
-          <t>PPIJUN</t>
-        </is>
-      </c>
-      <c r="C3004" t="inlineStr"/>
-      <c r="D3004" t="inlineStr">
-        <is>
-          <t>148.072</t>
-        </is>
-      </c>
-      <c r="E3004" t="inlineStr"/>
-      <c r="F3004" t="inlineStr">
-        <is>
-          <t>148.9</t>
-        </is>
-      </c>
-      <c r="G3004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3005">
-      <c r="A3005" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3005" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3005" t="inlineStr"/>
-      <c r="D3005" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3005" t="inlineStr"/>
-      <c r="F3005" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3006">
-      <c r="A3006" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3006" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3006" t="inlineStr"/>
-      <c r="D3006" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E3006" t="inlineStr"/>
-      <c r="F3006" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G3006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3007">
-      <c r="A3007" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3007" t="inlineStr">
-        <is>
-          <t>PPI YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3007" t="inlineStr"/>
-      <c r="D3007" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E3007" t="inlineStr"/>
-      <c r="F3007" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G3007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3008">
-      <c r="A3008" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3008" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C3008" t="inlineStr"/>
-      <c r="D3008" t="inlineStr"/>
-      <c r="E3008" t="inlineStr"/>
-      <c r="F3008" t="inlineStr"/>
-      <c r="G3008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3009">
-      <c r="A3009" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3009" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3009" t="inlineStr"/>
-      <c r="D3009" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E3009" t="inlineStr"/>
-      <c r="F3009" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3010">
-      <c r="A3010" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3010" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJUN</t>
-        </is>
-      </c>
-      <c r="C3010" t="inlineStr"/>
-      <c r="D3010" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="E3010" t="inlineStr"/>
-      <c r="F3010" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G3010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3011">
-      <c r="A3011" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3011" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3011" t="inlineStr"/>
-      <c r="D3011" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E3011" t="inlineStr"/>
-      <c r="F3011" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="G3011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3012">
-      <c r="A3012" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3012" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3012" t="inlineStr"/>
-      <c r="D3012" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3012" t="inlineStr"/>
-      <c r="F3012" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3013">
-      <c r="A3013" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3013" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3013" t="inlineStr"/>
-      <c r="D3013" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E3013" t="inlineStr"/>
-      <c r="F3013" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G3013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3014">
-      <c r="A3014" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3014" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3014" t="inlineStr"/>
-      <c r="D3014" t="inlineStr">
-        <is>
-          <t>7.07M</t>
-        </is>
-      </c>
-      <c r="E3014" t="inlineStr"/>
-      <c r="F3014" t="inlineStr"/>
-      <c r="G3014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3015">
-      <c r="A3015" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3015" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3015" t="inlineStr"/>
-      <c r="D3015" t="inlineStr">
-        <is>
-          <t>-2.658M</t>
-        </is>
-      </c>
-      <c r="E3015" t="inlineStr"/>
-      <c r="F3015" t="inlineStr"/>
-      <c r="G3015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3016">
-      <c r="A3016" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3016" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3016" t="inlineStr"/>
-      <c r="D3016" t="inlineStr">
-        <is>
-          <t>-1.358M</t>
-        </is>
-      </c>
-      <c r="E3016" t="inlineStr"/>
-      <c r="F3016" t="inlineStr"/>
-      <c r="G3016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3017">
-      <c r="A3017" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3017" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3017" t="inlineStr"/>
-      <c r="D3017" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E3017" t="inlineStr"/>
-      <c r="F3017" t="inlineStr"/>
-      <c r="G3017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3018">
-      <c r="A3018" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3018" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3018" t="inlineStr"/>
-      <c r="D3018" t="inlineStr">
-        <is>
-          <t>0.059M</t>
-        </is>
-      </c>
-      <c r="E3018" t="inlineStr"/>
-      <c r="F3018" t="inlineStr"/>
-      <c r="G3018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3019">
-      <c r="A3019" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3019" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3019" t="inlineStr"/>
-      <c r="D3019" t="inlineStr">
-        <is>
-          <t>-0.825M</t>
-        </is>
-      </c>
-      <c r="E3019" t="inlineStr"/>
-      <c r="F3019" t="inlineStr"/>
-      <c r="G3019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3020">
-      <c r="A3020" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3020" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3020" t="inlineStr"/>
-      <c r="D3020" t="inlineStr">
-        <is>
-          <t>0.278M</t>
-        </is>
-      </c>
-      <c r="E3020" t="inlineStr"/>
-      <c r="F3020" t="inlineStr"/>
-      <c r="G3020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3021">
-      <c r="A3021" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3021" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3021" t="inlineStr"/>
-      <c r="D3021" t="inlineStr">
-        <is>
-          <t>0.603M</t>
-        </is>
-      </c>
-      <c r="E3021" t="inlineStr"/>
-      <c r="F3021" t="inlineStr"/>
-      <c r="G3021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3022">
-      <c r="A3022" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3022" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3022" t="inlineStr"/>
-      <c r="D3022" t="inlineStr">
-        <is>
-          <t>-0.099M</t>
-        </is>
-      </c>
-      <c r="E3022" t="inlineStr"/>
-      <c r="F3022" t="inlineStr"/>
-      <c r="G3022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3023">
-      <c r="A3023" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3023" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3023" t="inlineStr"/>
-      <c r="D3023" t="inlineStr"/>
-      <c r="E3023" t="inlineStr"/>
-      <c r="F3023" t="inlineStr"/>
-      <c r="G3023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3024">
-      <c r="A3024" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B3024" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C3024" t="inlineStr"/>
-      <c r="D3024" t="inlineStr"/>
-      <c r="E3024" t="inlineStr"/>
-      <c r="F3024" t="inlineStr"/>
-      <c r="G3024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3025">
-      <c r="A3025" t="inlineStr">
-        <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B3025" t="inlineStr"/>
-      <c r="C3025" t="inlineStr"/>
-      <c r="D3025" t="inlineStr"/>
-      <c r="E3025" t="inlineStr"/>
-      <c r="F3025" t="inlineStr"/>
-      <c r="G3025" t="inlineStr"/>
-    </row>
-    <row r="3026">
-      <c r="A3026" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B3026" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C3026" t="inlineStr"/>
-      <c r="D3026" t="inlineStr"/>
-      <c r="E3026" t="inlineStr"/>
-      <c r="F3026" t="inlineStr"/>
-      <c r="G3026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3027">
-      <c r="A3027" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3027" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3027" t="inlineStr"/>
-      <c r="D3027" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3027" t="inlineStr"/>
-      <c r="F3027" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3027" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3028">
-      <c r="A3028" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3028" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3028" t="inlineStr"/>
-      <c r="D3028" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3028" t="inlineStr"/>
-      <c r="F3028" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3029">
-      <c r="A3029" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3029" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3029" t="inlineStr"/>
-      <c r="D3029" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3029" t="inlineStr"/>
-      <c r="F3029" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3030">
-      <c r="A3030" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3030" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C3030" t="inlineStr"/>
-      <c r="D3030" t="inlineStr"/>
-      <c r="E3030" t="inlineStr"/>
-      <c r="F3030" t="inlineStr"/>
-      <c r="G3030" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3031">
-      <c r="A3031" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3031" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3031" t="inlineStr"/>
-      <c r="D3031" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="E3031" t="inlineStr"/>
-      <c r="F3031" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G3031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3032">
-      <c r="A3032" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3032" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3032" t="inlineStr"/>
-      <c r="D3032" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E3032" t="inlineStr"/>
-      <c r="F3032" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3032" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3033">
-      <c r="A3033" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3033" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3033" t="inlineStr"/>
-      <c r="D3033" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E3033" t="inlineStr"/>
-      <c r="F3033" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3034">
-      <c r="A3034" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3034" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C3034" t="inlineStr"/>
-      <c r="D3034" t="inlineStr"/>
-      <c r="E3034" t="inlineStr"/>
-      <c r="F3034" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G3034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3035">
-      <c r="A3035" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3035" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3035" t="inlineStr"/>
-      <c r="D3035" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E3035" t="inlineStr"/>
-      <c r="F3035" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G3035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3036">
-      <c r="A3036" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3036" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3036" t="inlineStr"/>
-      <c r="D3036" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E3036" t="inlineStr"/>
-      <c r="F3036" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3037">
-      <c r="A3037" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3037" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C3037" t="inlineStr"/>
-      <c r="D3037" t="inlineStr"/>
-      <c r="E3037" t="inlineStr"/>
-      <c r="F3037" t="inlineStr"/>
-      <c r="G3037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3038">
-      <c r="A3038" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3038" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C3038" t="inlineStr"/>
-      <c r="D3038" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E3038" t="inlineStr"/>
-      <c r="F3038" t="inlineStr"/>
-      <c r="G3038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3039">
-      <c r="A3039" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3039" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3039" t="inlineStr"/>
-      <c r="D3039" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E3039" t="inlineStr"/>
-      <c r="F3039" t="inlineStr"/>
-      <c r="G3039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3040">
-      <c r="A3040" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3040" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C3040" t="inlineStr"/>
-      <c r="D3040" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E3040" t="inlineStr"/>
-      <c r="F3040" t="inlineStr"/>
-      <c r="G3040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3041">
-      <c r="A3041" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3041" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C3041" t="inlineStr"/>
-      <c r="D3041" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E3041" t="inlineStr"/>
-      <c r="F3041" t="inlineStr"/>
-      <c r="G3041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3042">
-      <c r="A3042" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3042" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C3042" t="inlineStr"/>
-      <c r="D3042" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E3042" t="inlineStr"/>
-      <c r="F3042" t="inlineStr"/>
-      <c r="G3042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3043">
-      <c r="A3043" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3043" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3043" t="inlineStr"/>
-      <c r="D3043" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E3043" t="inlineStr"/>
-      <c r="F3043" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3044">
-      <c r="A3044" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3044" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3044" t="inlineStr"/>
-      <c r="D3044" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E3044" t="inlineStr"/>
-      <c r="F3044" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G3044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3045">
-      <c r="A3045" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3045" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3045" t="inlineStr"/>
-      <c r="D3045" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3045" t="inlineStr"/>
-      <c r="F3045" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3046">
-      <c r="A3046" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3046" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3046" t="inlineStr"/>
-      <c r="D3046" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E3046" t="inlineStr"/>
-      <c r="F3046" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G3046" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3047">
-      <c r="A3047" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3047" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3047" t="inlineStr"/>
-      <c r="D3047" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E3047" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F3047" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3048">
-      <c r="A3048" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3048" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3048" t="inlineStr"/>
-      <c r="D3048" t="inlineStr"/>
-      <c r="E3048" t="inlineStr"/>
-      <c r="F3048" t="inlineStr"/>
-      <c r="G3048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3049">
-      <c r="A3049" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3049" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3049" t="inlineStr"/>
-      <c r="D3049" t="inlineStr"/>
-      <c r="E3049" t="inlineStr"/>
-      <c r="F3049" t="inlineStr"/>
-      <c r="G3049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3050">
-      <c r="A3050" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3050" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3050" t="inlineStr"/>
-      <c r="D3050" t="inlineStr"/>
-      <c r="E3050" t="inlineStr"/>
-      <c r="F3050" t="inlineStr"/>
-      <c r="G3050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3051">
-      <c r="A3051" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3051" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3051" t="inlineStr"/>
-      <c r="D3051" t="inlineStr"/>
-      <c r="E3051" t="inlineStr"/>
-      <c r="F3051" t="inlineStr"/>
-      <c r="G3051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3052">
-      <c r="A3052" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3052" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3052" t="inlineStr"/>
-      <c r="D3052" t="inlineStr"/>
-      <c r="E3052" t="inlineStr"/>
-      <c r="F3052" t="inlineStr"/>
-      <c r="G3052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3053">
-      <c r="A3053" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B3053" t="inlineStr"/>
-      <c r="C3053" t="inlineStr"/>
-      <c r="D3053" t="inlineStr"/>
-      <c r="E3053" t="inlineStr"/>
-      <c r="F3053" t="inlineStr"/>
-      <c r="G3053" t="inlineStr"/>
-    </row>
-    <row r="3054">
-      <c r="A3054" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3054" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3054" t="inlineStr"/>
-      <c r="D3054" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E3054" t="inlineStr"/>
-      <c r="F3054" t="inlineStr"/>
-      <c r="G3054" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3055">
-      <c r="A3055" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3055" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C3055" t="inlineStr"/>
-      <c r="D3055" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E3055" t="inlineStr"/>
-      <c r="F3055" t="inlineStr"/>
-      <c r="G3055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3056">
-      <c r="A3056" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3056" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3056" t="inlineStr"/>
-      <c r="D3056" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E3056" t="inlineStr"/>
-      <c r="F3056" t="inlineStr"/>
-      <c r="G3056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3057">
-      <c r="A3057" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B3057" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C3057" t="inlineStr"/>
-      <c r="D3057" t="inlineStr"/>
-      <c r="E3057" t="inlineStr"/>
-      <c r="F3057" t="inlineStr"/>
-      <c r="G3057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3058">
-      <c r="A3058" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3058" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3058" t="inlineStr"/>
-      <c r="D3058" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E3058" t="inlineStr"/>
-      <c r="F3058" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G3058" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3059">
-      <c r="A3059" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3059" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C3059" t="inlineStr"/>
-      <c r="D3059" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E3059" t="inlineStr"/>
-      <c r="F3059" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G3059" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3060">
-      <c r="A3060" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3060" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3060" t="inlineStr"/>
-      <c r="D3060" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E3060" t="inlineStr"/>
-      <c r="F3060" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G3060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3061">
-      <c r="A3061" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3061" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3061" t="inlineStr"/>
-      <c r="D3061" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E3061" t="inlineStr"/>
-      <c r="F3061" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G3061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3062">
-      <c r="A3062" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3062" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3062" t="inlineStr"/>
-      <c r="D3062" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E3062" t="inlineStr"/>
-      <c r="F3062" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G3062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3063">
-      <c r="A3063" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3063" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3063" t="inlineStr"/>
-      <c r="D3063" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E3063" t="inlineStr"/>
-      <c r="F3063" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G3063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3064">
-      <c r="A3064" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3064" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3064" t="inlineStr"/>
-      <c r="D3064" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E3064" t="inlineStr"/>
-      <c r="F3064" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G3064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3065">
-      <c r="A3065" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3065" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3065" t="inlineStr"/>
-      <c r="D3065" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E3065" t="inlineStr"/>
-      <c r="F3065" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G3065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3066">
-      <c r="A3066" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3066" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3066" t="inlineStr"/>
-      <c r="D3066" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E3066" t="inlineStr"/>
-      <c r="F3066" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G3066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3067">
-      <c r="A3067" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3067" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3067" t="inlineStr"/>
-      <c r="D3067" t="inlineStr"/>
-      <c r="E3067" t="inlineStr"/>
-      <c r="F3067" t="inlineStr"/>
-      <c r="G3067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3068">
-      <c r="A3068" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3068" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3068" t="inlineStr"/>
-      <c r="D3068" t="inlineStr"/>
-      <c r="E3068" t="inlineStr"/>
-      <c r="F3068" t="inlineStr"/>
-      <c r="G3068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3069">
-      <c r="A3069" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B3069" t="inlineStr"/>
-      <c r="C3069" t="inlineStr"/>
-      <c r="D3069" t="inlineStr"/>
-      <c r="E3069" t="inlineStr"/>
-      <c r="F3069" t="inlineStr"/>
-      <c r="G3069" t="inlineStr"/>
+      <c r="G2999" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
